--- a/j.p_morgan_trading_posts.xlsx
+++ b/j.p_morgan_trading_posts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,239 +461,199 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20h</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>More Told you to buy $OM 19 hours ago. Now you’re sipping champagne at 40,000 feet +71%</t>
+          <t>Comment2</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_b4913478_0.jpg</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_fc73dc56_1.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20h</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>More Satisfied with the signal?💥</t>
+          <t>Repost</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_051ea699_0.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22h</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>More Told you to buy $OM 17 hours ago. Now you’re skipping airport lines in your own jet +57%</t>
+          <t>Comment1</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_293b5580_0.jpg</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1d</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>More Told you to buy $OM 15 hours ago. Now you’re boarding first class with a one-way ticket to paradise +25%</t>
+          <t>Repost</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_18f22bb2_0.jpg</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_dc33e4c8_1.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23h</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>More +32% 📈</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_925a6ceb_0.jpg</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1d</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>More Buy $OM and pick a new Jet! Like 7 Comment 10 Repost Share j.p_morgan_trading 1d More SL: 0.224
-TP1: 0.276
-Lv: 5-10x Use 5% capital</t>
+          <t>Comment1</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_dbd5e59b_0.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1d</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>More Buy $OM and pick a new Jet!</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_61c45673_0.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1d</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>More SL: 0.224
-TP1: 0.276
-Lv: 5-10x Use 5% capital</t>
+          <t>Comment10</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -701,174 +661,142 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4d</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>More Told you to buy $EIGEN 4 days ago. Now you’re choosing champagne brands for your first flight in the new jet +214%</t>
+          <t>Repost</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_6a772626_0.jpg</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_1cf2a9ee_1.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4d</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>More Ready for new signal?🔥</t>
+          <t>Comment1</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_f624a364_0.jpg</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4d</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>More Told you to buy $CRV 1 day ago. Now you’re watching the sunset from your own yacht +112%</t>
+          <t>j.p_morgan_trading4dMoreTold you to buy $EIGEN 4 days ago. Now you’re choosing champagne brands for your first flight in the new jet +214%Like5Comment1RepostSharej.p_morgan_trading4dMoreReady for new signal?🔥Like4CommentRepostShare</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_019f4628_0.jpg</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_616b6cae_1.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4d</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>More Happy with the signal?</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_3a93776e_0.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>More Told you to buy $EIGEN 3 days ago. Today, you’re waking up on your yacht in the Mediterranean +135%</t>
+          <t>Comment3</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_9bc8f1e1_0.jpg</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_2ae3f9dd_1.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>More +185% 📈🔥 Like Comment Repost Share</t>
+          <t>Repost</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -877,185 +805,152 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_0f7b7fbe_0.jpg</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>More Told you to buy $CRV 8 hours ago. Now you’re picking interior finishes for your brand new Ferrari +51%</t>
+          <t>Comment2</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_a94c666e_0.jpg</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>More Told you to buy $EIGEN 3 days ago.
-Now you’re at the BMW dealership choosing between matte black or glacier white +56%</t>
+          <t>Comment1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_d99ce646_0.jpg</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_e68a11c1_1.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>More +74% now 🤑</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_6cc15bf3_0.jpg</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>More Buy $CRV — pick a new sports car Like 5 Comment 1 Repost Share j.p_morgan_trading 5d More SL: 0.647
-TP1: 0.690
-Lv: 5-10x Use 5% capital</t>
+          <t>Comment7</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_b86af586_0.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>More Buy $CRV — pick a new sports car</t>
+          <t>Repost1</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_fd4ea176_0.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>More SL: 0.647
-TP1: 0.690
-Lv: 5-10x Use 5% capital</t>
+          <t>Share</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1066,82 +961,74 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19h</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>More Satisfied with the signal?💥</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_80cbd35e_0.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1d</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>More Buy $OM and pick a new Jet! Like 7 Comment 10 Repost Share j.p_morgan_trading 1d More SL: 0.224</t>
+          <t>Comment1</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_d83ecd76_0.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1d</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>More SL: 0.224</t>
+          <t>Comment3</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1149,83 +1036,71 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>More Told you to buy $EIGEN 3 days ago.</t>
+          <t>Comment5</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_b7951f48_0.jpg</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_2879e34b_1.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>More Buy $CRV — pick a new sports car Like 5 Comment 1 Repost Share j.p_morgan_trading 5d More SL: 0.647</t>
+          <t>Repost</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>images/j.p_morgan_trading_94203841_0.jpg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>p_morgan_trading</t>
+          <t>Continue with Instagram</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5d</t>
+          <t>Log in with username instead</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>More SL: 0.647</t>
+          <t>Report a problem</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1236,7 +1111,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>j.p_morgan_trading</t>
+          <t>p_morgan_trading</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1246,7 +1121,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Told you to buy $OM 19 hours ago. Now you’re sipping champagne at 40,000 feet +71%</t>
+          <t>More Told you to buy $OM 19 hours ago. Now you’re sipping champagne at 40,000 feet +71%</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1255,58 +1130,654 @@
       <c r="E28" t="n">
         <v>2</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_b4913478_0.jpg</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_fc73dc56_1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>j.p_morgan_trading</t>
+          <t>p_morgan_trading</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22h</t>
+          <t>19h</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Told you to buy $OM 17 hours ago. Now you’re skipping airport lines in your own jet +57%</t>
+          <t>More Satisfied with the signal?💥</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_80cbd35e_0.jpg</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>j.p_morgan_trading 1d More Told you to buy $OM 15 hours ago. Now you’re boarding first class with a one-way ticket to paradise +25% Like 5 Comment 1 Repost Share j.p_morgan_trading</t>
+          <t>p_morgan_trading</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23h</t>
+          <t>22h</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Told you to buy $OM 15 hours ago. Now you’re boarding first class with a one-way ticket to paradise +25%</t>
+          <t>More Told you to buy $OM 17 hours ago. Now you’re skipping airport lines in your own jet +57%</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>5</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_293b5580_0.jpg</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>More Told you to buy $OM 15 hours ago. Now you’re boarding first class with a one-way ticket to paradise +25%</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_18f22bb2_0.jpg</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_dc33e4c8_1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>23h</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>More +32% 📈</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_925a6ceb_0.jpg</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>More Buy $OM and pick a new Jet! Like 7 Comment 10 Repost Share j.p_morgan_trading 1d More SL: 0.224</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_d83ecd76_0.jpg</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>More Buy $OM and pick a new Jet!</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_61c45673_0.jpg</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>More SL: 0.224</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4d</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>More Told you to buy $EIGEN 4 days ago. Now you’re choosing champagne brands for your first flight in the new jet +214%</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_6a772626_0.jpg</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_1cf2a9ee_1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4d</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>More Ready for new signal?🔥</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_f624a364_0.jpg</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4d</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>More Told you to buy $CRV 1 day ago. Now you’re watching the sunset from your own yacht +112%</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_019f4628_0.jpg</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_616b6cae_1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4d</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>More Happy with the signal?</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_3a93776e_0.jpg</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5d</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>More Told you to buy $EIGEN 3 days ago. Today, you’re waking up on your yacht in the Mediterranean +135%</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_9bc8f1e1_0.jpg</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_2ae3f9dd_1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5d</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>More +185% 📈🔥 Like Comment Repost Share</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_0f7b7fbe_0.jpg</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5d</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>More Told you to buy $CRV 8 hours ago. Now you’re picking interior finishes for your brand new Ferrari +51%</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_a94c666e_0.jpg</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5d</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>More Told you to buy $EIGEN 3 days ago.</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_b7951f48_0.jpg</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_2879e34b_1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5d</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>More +74% now 🤑</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_6cc15bf3_0.jpg</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5d</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>More Buy $CRV — pick a new sports car Like 5 Comment 1 Repost Share j.p_morgan_trading 5d More SL: 0.647</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_94203841_0.jpg</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5d</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>More Buy $CRV — pick a new sports car</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>images/j.p_morgan_trading_fd4ea176_0.jpg</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5d</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>More SL: 0.647</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>j.p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20h</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Told you to buy $OM 19 hours ago. Now you’re sipping champagne at 40,000 feet +71%</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>j.p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22h</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Told you to buy $OM 17 hours ago. Now you’re skipping airport lines in your own jet +57%</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>j.p_morgan_trading 1d More Told you to buy $OM 15 hours ago. Now you’re boarding first class with a one-way ticket to paradise +25% Like 5 Comment 1 Repost Share j.p_morgan_trading</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>23h</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Told you to buy $OM 15 hours ago. Now you’re boarding first class with a one-way ticket to paradise +25%</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
